--- a/src/main/resources/Field_Values.xlsx
+++ b/src/main/resources/Field_Values.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E184A32-6D75-4039-809D-451F91C2965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25500A9-BF1E-40F1-BA57-6CA09E152898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Sub Tab</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>fieldMailingPostalCode</t>
-  </si>
-  <si>
-    <t>fieldMailingCountry</t>
-  </si>
-  <si>
-    <t>US</t>
   </si>
 </sst>
 </file>
@@ -414,20 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D795F61-CC1F-4314-B1D8-0852B981BA18}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -449,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -460,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -471,7 +465,7 @@
         <v>9058295869</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -482,7 +476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -493,7 +487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -504,7 +498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -515,7 +509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -524,17 +518,6 @@
       </c>
       <c r="C9">
         <v>23456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
